--- a/Assets/KDH/GuideLine/GuideLineDB.xlsx
+++ b/Assets/KDH/GuideLine/GuideLineDB.xlsx
@@ -35,15 +35,9 @@
     <t xml:space="preserve">아직 사용할 수 없다. </t>
   </si>
   <si>
-    <t xml:space="preserve">2번 방으로 가보자. </t>
-  </si>
-  <si>
     <t>4번 방으로 가보자.</t>
   </si>
   <si>
-    <t>3번 방으로 가보자.</t>
-  </si>
-  <si>
     <t>6번 방으로 가보자.</t>
   </si>
   <si>
@@ -63,6 +57,14 @@
   </si>
   <si>
     <t>비밀번호는 8324인 것 같다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTV 관리실로 가보자. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호는 9635인 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -416,7 +418,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -461,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -469,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -477,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -485,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -493,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -501,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -509,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -517,7 +519,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -525,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">

--- a/Assets/KDH/GuideLine/GuideLineDB.xlsx
+++ b/Assets/KDH/GuideLine/GuideLineDB.xlsx
@@ -50,12 +50,6 @@
     <t>열쇠를 획득했다.</t>
   </si>
   <si>
-    <t xml:space="preserve">순서가 맞지 않는 것 같다. </t>
-  </si>
-  <si>
-    <t>정보를 획득하고, 탈출하자.</t>
-  </si>
-  <si>
     <t>비밀번호는 8324인 것 같다.</t>
   </si>
   <si>
@@ -64,6 +58,14 @@
   </si>
   <si>
     <t>비밀번호는 9635인 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보를 획득했으니, 탈출하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속 권한이 없다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +420,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -463,7 +465,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -511,7 +513,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -519,7 +521,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -527,7 +529,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -535,7 +537,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/KDH/GuideLine/GuideLineDB.xlsx
+++ b/Assets/KDH/GuideLine/GuideLineDB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>eventNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,11 +61,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정보를 획득했으니, 탈출하자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속 권한이 없다.</t>
+    <t>폭탄을 설치했다. 서둘러 탈출하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보를 획득했다. 서둘러 탈출하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호가 5728이라 적혀있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호가 1234라고 적혀있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임무지에 잡힌 인질을 구출할 것</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -513,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -521,7 +533,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -538,6 +550,30 @@
       </c>
       <c r="B14" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/KDH/GuideLine/GuideLineDB.xlsx
+++ b/Assets/KDH/GuideLine/GuideLineDB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>eventNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>임무지에 잡힌 인질을 구출할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막힌문이 열렸다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,6 +578,14 @@
       </c>
       <c r="B17" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/KDH/GuideLine/GuideLineDB.xlsx
+++ b/Assets/KDH/GuideLine/GuideLineDB.xlsx
@@ -38,9 +38,6 @@
     <t>4번 방으로 가보자.</t>
   </si>
   <si>
-    <t>6번 방으로 가보자.</t>
-  </si>
-  <si>
     <t>서버실로 가보자.</t>
   </si>
   <si>
@@ -77,11 +74,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>임무지에 잡힌 인질을 구출할 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>막힌문이 열렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납치된 인질을 구출할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스실에 폭탄을 설치하라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +437,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -481,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -497,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -505,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -513,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -521,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -529,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -537,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -545,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -553,7 +554,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -561,7 +562,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -569,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -585,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
